--- a/tempfiles/MarkowitzPortResults.xlsx
+++ b/tempfiles/MarkowitzPortResults.xlsx
@@ -16745,19 +16745,19 @@
         <v>-1.368702201565342e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>5.576762748186392e-07</v>
+        <v>5.576762748186388e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.268102761160933e-08</v>
+        <v>-4.268102761160695e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>3.18147220576247e-07</v>
+        <v>3.181472205762419e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>7.577562175445286e-07</v>
+        <v>7.577562175445294e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>1.12443302972932e-06</v>
+        <v>1.124433029729319e-06</v>
       </c>
     </row>
     <row r="3">
@@ -16770,19 +16770,19 @@
         <v>0.00132509317242496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008757808411590423</v>
+        <v>0.0008757808411590425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005971617968689912</v>
+        <v>0.0005971617968689911</v>
       </c>
       <c r="E3" t="n">
         <v>0.0004140536146226729</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006292196267384687</v>
+        <v>0.0006292196267384685</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001047113092580234</v>
+        <v>0.001047113092580235</v>
       </c>
     </row>
     <row r="4">
@@ -16804,10 +16804,10 @@
         <v>0.0203483074141972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0250842505715931</v>
+        <v>0.02508425057159309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03235912688222959</v>
+        <v>0.03235912688222962</v>
       </c>
     </row>
     <row r="5">
@@ -16820,19 +16820,19 @@
         <v>-26595.87250167097</v>
       </c>
       <c r="C5" t="n">
-        <v>53065.90208882764</v>
+        <v>53065.90208882768</v>
       </c>
       <c r="D5" t="n">
-        <v>-572546.9966732099</v>
+        <v>-572546.9966732418</v>
       </c>
       <c r="E5" t="n">
-        <v>63958.77788069671</v>
+        <v>63958.77788069773</v>
       </c>
       <c r="F5" t="n">
-        <v>33103.32530543578</v>
+        <v>33103.32530543575</v>
       </c>
       <c r="G5" t="n">
-        <v>28778.1717778419</v>
+        <v>28778.17177784195</v>
       </c>
     </row>
     <row r="6">
@@ -16845,19 +16845,19 @@
         <v>-3.759981929290614e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.884449261460002e-05</v>
+        <v>1.88444926146e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.746581513501093e-06</v>
+        <v>-1.746581513500995e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>1.563507048032274e-05</v>
+        <v>1.563507048032249e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>3.020844554960143e-05</v>
+        <v>3.020844554960146e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>3.474855900227693e-05</v>
+        <v>3.474855900227687e-05</v>
       </c>
     </row>
   </sheetData>
@@ -16921,19 +16921,19 @@
         <v>2.671760693988329e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>3.010639698511928e-10</v>
+        <v>3.01063969851193e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>5.925887916944875e-10</v>
+        <v>5.925887916944878e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>3.618879773535467e-10</v>
+        <v>3.618879773535465e-10</v>
       </c>
       <c r="F2" t="n">
         <v>4.09153882427507e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>6.216460339229775e-10</v>
+        <v>6.216460339229779e-10</v>
       </c>
     </row>
     <row r="3">
@@ -16943,22 +16943,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.010639698511928e-10</v>
+        <v>3.01063969851193e-10</v>
       </c>
       <c r="C3" t="n">
         <v>1.766745102584801e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>6.405762527174081e-10</v>
+        <v>6.405762527174079e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>7.35851486973983e-10</v>
+        <v>7.358514869739833e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>7.355445277567378e-10</v>
+        <v>7.355445277567381e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>9.168816633148271e-10</v>
+        <v>9.168816633148269e-10</v>
       </c>
     </row>
     <row r="4">
@@ -16968,22 +16968,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.925887916944875e-10</v>
+        <v>5.925887916944878e-10</v>
       </c>
       <c r="C4" t="n">
-        <v>6.405762527174081e-10</v>
+        <v>6.405762527174079e-10</v>
       </c>
       <c r="D4" t="n">
         <v>1.204886235680898e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>6.400963289770289e-10</v>
+        <v>6.400963289770287e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>6.853821004916362e-10</v>
+        <v>6.853821004916361e-10</v>
       </c>
       <c r="G4" t="n">
-        <v>9.098998853628511e-10</v>
+        <v>9.098998853628509e-10</v>
       </c>
     </row>
     <row r="5">
@@ -16993,22 +16993,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.618879773535467e-10</v>
+        <v>3.618879773535465e-10</v>
       </c>
       <c r="C5" t="n">
-        <v>7.35851486973983e-10</v>
+        <v>7.358514869739833e-10</v>
       </c>
       <c r="D5" t="n">
-        <v>6.400963289770289e-10</v>
+        <v>6.400963289770287e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>8.353313693406322e-10</v>
+        <v>8.353313693406324e-10</v>
       </c>
       <c r="F5" t="n">
-        <v>6.654906678150275e-10</v>
+        <v>6.654906678150267e-10</v>
       </c>
       <c r="G5" t="n">
-        <v>7.460571592757743e-10</v>
+        <v>7.460571592757742e-10</v>
       </c>
     </row>
     <row r="6">
@@ -17021,19 +17021,19 @@
         <v>4.09153882427507e-10</v>
       </c>
       <c r="C6" t="n">
-        <v>7.355445277567378e-10</v>
+        <v>7.355445277567381e-10</v>
       </c>
       <c r="D6" t="n">
-        <v>6.853821004916362e-10</v>
+        <v>6.853821004916361e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>6.654906678150275e-10</v>
+        <v>6.654906678150267e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>1.268998286286397e-09</v>
+        <v>1.268998286286398e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.035362849770306e-09</v>
+        <v>1.035362849770307e-09</v>
       </c>
     </row>
     <row r="7">
@@ -17043,22 +17043,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.216460339229775e-10</v>
+        <v>6.216460339229779e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>9.168816633148271e-10</v>
+        <v>9.168816633148269e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>9.098998853628511e-10</v>
+        <v>9.098998853628509e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>7.460571592757743e-10</v>
+        <v>7.460571592757742e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>1.035362849770306e-09</v>
+        <v>1.035362849770307e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>2.111490023747853e-09</v>
+        <v>2.111490023747854e-09</v>
       </c>
     </row>
   </sheetData>
@@ -17122,19 +17122,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1385712254725617</v>
+        <v>0.1385712254725618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3302795111812735</v>
+        <v>0.3302795111812737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2422400690429395</v>
+        <v>0.2422400690429393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.222206818105336</v>
+        <v>0.2222068181053359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2617278105252807</v>
+        <v>0.2617278105252808</v>
       </c>
     </row>
     <row r="3">
@@ -17144,22 +17144,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1385712254725617</v>
+        <v>0.1385712254725618</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4390468493350317</v>
+        <v>0.4390468493350315</v>
       </c>
       <c r="E3" t="n">
-        <v>0.605722670414774</v>
+        <v>0.6057226704147741</v>
       </c>
       <c r="F3" t="n">
         <v>0.4912374891922993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.47471376227783</v>
+        <v>0.4747137622778297</v>
       </c>
     </row>
     <row r="4">
@@ -17169,22 +17169,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3302795111812735</v>
+        <v>0.3302795111812737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4390468493350317</v>
+        <v>0.4390468493350315</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6380326736147535</v>
+        <v>0.6380326736147531</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5542800133996786</v>
+        <v>0.5542800133996784</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5704611483399129</v>
+        <v>0.5704611483399126</v>
       </c>
     </row>
     <row r="5">
@@ -17194,22 +17194,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2422400690429395</v>
+        <v>0.2422400690429393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.605722670414774</v>
+        <v>0.6057226704147741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6380326736147535</v>
+        <v>0.6380326736147531</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6463712877059415</v>
+        <v>0.6463712877059405</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5617566082186783</v>
+        <v>0.5617566082186781</v>
       </c>
     </row>
     <row r="6">
@@ -17219,22 +17219,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.222206818105336</v>
+        <v>0.2222068181053359</v>
       </c>
       <c r="C6" t="n">
         <v>0.4912374891922993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5542800133996786</v>
+        <v>0.5542800133996784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6463712877059415</v>
+        <v>0.6463712877059405</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6325102141192945</v>
+        <v>0.6325102141192952</v>
       </c>
     </row>
     <row r="7">
@@ -17244,19 +17244,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2617278105252807</v>
+        <v>0.2617278105252808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.47471376227783</v>
+        <v>0.4747137622778297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5704611483399129</v>
+        <v>0.5704611483399126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5617566082186783</v>
+        <v>0.5617566082186781</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6325102141192945</v>
+        <v>0.6325102141192952</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>

--- a/tempfiles/MarkowitzPortResults.xlsx
+++ b/tempfiles/MarkowitzPortResults.xlsx
@@ -16742,22 +16742,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.368702201565342e-06</v>
+        <v>-0.04995763035713505</v>
       </c>
       <c r="C2" t="n">
-        <v>5.576762748186388e-07</v>
+        <v>0.02035518403088033</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.268102761160695e-08</v>
+        <v>-0.001557857507823656</v>
       </c>
       <c r="E2" t="n">
-        <v>3.181472205762419e-07</v>
+        <v>0.01161237355103286</v>
       </c>
       <c r="F2" t="n">
-        <v>7.577562175445294e-07</v>
+        <v>0.02765810194037534</v>
       </c>
       <c r="G2" t="n">
-        <v>1.124433029729319e-06</v>
+        <v>0.04104180558512016</v>
       </c>
     </row>
     <row r="3">
@@ -16767,22 +16767,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00132509317242496</v>
+        <v>0.003724585656056571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008757808411590425</v>
+        <v>0.001274131738360372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005971617968689911</v>
+        <v>0.0005994951001760606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004140536146226729</v>
+        <v>0.000543699198852307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006292196267384685</v>
+        <v>0.001364682034589498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001047113092580235</v>
+        <v>0.002666567220593085</v>
       </c>
     </row>
     <row r="4">
@@ -16792,22 +16792,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03640182924558819</v>
+        <v>0.06102938354642435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02959359459678804</v>
+        <v>0.0356949819773084</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02443689417395327</v>
+        <v>0.02448458903424888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0203483074141972</v>
+        <v>0.02331735831633393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02508425057159309</v>
+        <v>0.0369416030322115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03235912688222962</v>
+        <v>0.05163881505798797</v>
       </c>
     </row>
     <row r="5">
@@ -16817,22 +16817,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26595.87250167097</v>
+        <v>-1.221622865418956</v>
       </c>
       <c r="C5" t="n">
-        <v>53065.90208882768</v>
+        <v>1.753606448517314</v>
       </c>
       <c r="D5" t="n">
-        <v>-572546.9966732418</v>
+        <v>-15.71683476266974</v>
       </c>
       <c r="E5" t="n">
-        <v>63958.77788069773</v>
+        <v>2.007975218318736</v>
       </c>
       <c r="F5" t="n">
-        <v>33103.32530543575</v>
+        <v>1.335652139537605</v>
       </c>
       <c r="G5" t="n">
-        <v>28778.17177784195</v>
+        <v>1.258200372078898</v>
       </c>
     </row>
     <row r="6">
@@ -16842,22 +16842,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.759981929290614e-05</v>
+        <v>-0.8185832373537389</v>
       </c>
       <c r="C6" t="n">
-        <v>1.88444926146e-05</v>
+        <v>0.5702533774584981</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.746581513500995e-06</v>
+        <v>-0.0636260427179127</v>
       </c>
       <c r="E6" t="n">
-        <v>1.563507048032249e-05</v>
+        <v>0.498014114356099</v>
       </c>
       <c r="F6" t="n">
-        <v>3.020844554960146e-05</v>
+        <v>0.7486979359357702</v>
       </c>
       <c r="G6" t="n">
-        <v>3.474855900227687e-05</v>
+        <v>0.7947859674748954</v>
       </c>
     </row>
   </sheetData>
@@ -16918,22 +16918,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.671760693988329e-09</v>
+        <v>3.55945318456595</v>
       </c>
       <c r="C2" t="n">
-        <v>3.01063969851193e-10</v>
+        <v>0.4010924738342517</v>
       </c>
       <c r="D2" t="n">
-        <v>5.925887916944878e-10</v>
+        <v>0.7894764177349815</v>
       </c>
       <c r="E2" t="n">
-        <v>3.618879773535465e-10</v>
+        <v>0.4821252578292627</v>
       </c>
       <c r="F2" t="n">
-        <v>4.09153882427507e-10</v>
+        <v>0.5450952598640466</v>
       </c>
       <c r="G2" t="n">
-        <v>6.216460339229779e-10</v>
+        <v>0.8281879286938874</v>
       </c>
     </row>
     <row r="3">
@@ -16943,22 +16943,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.01063969851193e-10</v>
+        <v>0.4010924738342517</v>
       </c>
       <c r="C3" t="n">
-        <v>1.766745102584801e-09</v>
+        <v>2.3537461629186</v>
       </c>
       <c r="D3" t="n">
-        <v>6.405762527174079e-10</v>
+        <v>0.8534077126827661</v>
       </c>
       <c r="E3" t="n">
-        <v>7.358514869739833e-10</v>
+        <v>0.9803381435210888</v>
       </c>
       <c r="F3" t="n">
-        <v>7.355445277567381e-10</v>
+        <v>0.9799291971039149</v>
       </c>
       <c r="G3" t="n">
-        <v>9.168816633148269e-10</v>
+        <v>1.221515595951179</v>
       </c>
     </row>
     <row r="4">
@@ -16968,22 +16968,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.925887916944878e-10</v>
+        <v>0.7894764177349815</v>
       </c>
       <c r="C4" t="n">
-        <v>6.405762527174079e-10</v>
+        <v>0.8534077126827661</v>
       </c>
       <c r="D4" t="n">
-        <v>1.204886235680898e-09</v>
+        <v>1.605209687485875</v>
       </c>
       <c r="E4" t="n">
-        <v>6.400963289770287e-10</v>
+        <v>0.8527683342796468</v>
       </c>
       <c r="F4" t="n">
-        <v>6.853821004916361e-10</v>
+        <v>0.9131003033799829</v>
       </c>
       <c r="G4" t="n">
-        <v>9.098998853628509e-10</v>
+        <v>1.212214122274658</v>
       </c>
     </row>
     <row r="5">
@@ -16993,22 +16993,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.618879773535465e-10</v>
+        <v>0.4821252578292627</v>
       </c>
       <c r="C5" t="n">
-        <v>7.358514869739833e-10</v>
+        <v>0.9803381435210888</v>
       </c>
       <c r="D5" t="n">
-        <v>6.400963289770287e-10</v>
+        <v>0.8527683342796468</v>
       </c>
       <c r="E5" t="n">
-        <v>8.353313693406324e-10</v>
+        <v>1.112870216804057</v>
       </c>
       <c r="F5" t="n">
-        <v>6.654906678150267e-10</v>
+        <v>0.8865999421965711</v>
       </c>
       <c r="G5" t="n">
-        <v>7.460571592757742e-10</v>
+        <v>0.9939346504451493</v>
       </c>
     </row>
     <row r="6">
@@ -17018,22 +17018,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.09153882427507e-10</v>
+        <v>0.5450952598640466</v>
       </c>
       <c r="C6" t="n">
-        <v>7.355445277567381e-10</v>
+        <v>0.9799291971039149</v>
       </c>
       <c r="D6" t="n">
-        <v>6.853821004916361e-10</v>
+        <v>0.9131003033799829</v>
       </c>
       <c r="E6" t="n">
-        <v>6.654906678150267e-10</v>
+        <v>0.8865999421965711</v>
       </c>
       <c r="F6" t="n">
-        <v>1.268998286286398e-09</v>
+        <v>1.690622966905053</v>
       </c>
       <c r="G6" t="n">
-        <v>1.035362849770307e-09</v>
+        <v>1.37936215660649</v>
       </c>
     </row>
     <row r="7">
@@ -17043,22 +17043,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.216460339229779e-10</v>
+        <v>0.8281879286938874</v>
       </c>
       <c r="C7" t="n">
-        <v>9.168816633148269e-10</v>
+        <v>1.221515595951179</v>
       </c>
       <c r="D7" t="n">
-        <v>9.098998853628509e-10</v>
+        <v>1.212214122274658</v>
       </c>
       <c r="E7" t="n">
-        <v>7.460571592757742e-10</v>
+        <v>0.9939346504451493</v>
       </c>
       <c r="F7" t="n">
-        <v>1.035362849770307e-09</v>
+        <v>1.37936215660649</v>
       </c>
       <c r="G7" t="n">
-        <v>2.111490023747854e-09</v>
+        <v>2.81303258413808</v>
       </c>
     </row>
   </sheetData>
@@ -17125,13 +17125,13 @@
         <v>0.1385712254725618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3302795111812737</v>
+        <v>0.330279511181274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2422400690429393</v>
+        <v>0.2422400690429397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2222068181053359</v>
+        <v>0.2222068181053361</v>
       </c>
       <c r="G2" t="n">
         <v>0.2617278105252808</v>
@@ -17150,16 +17150,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4390468493350315</v>
+        <v>0.4390468493350316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6057226704147741</v>
+        <v>0.6057226704147742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4912374891922993</v>
+        <v>0.4912374891922998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4747137622778297</v>
+        <v>0.4747137622778299</v>
       </c>
     </row>
     <row r="4">
@@ -17169,22 +17169,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3302795111812737</v>
+        <v>0.330279511181274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4390468493350315</v>
+        <v>0.4390468493350316</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6380326736147531</v>
+        <v>0.6380326736147539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5542800133996784</v>
+        <v>0.5542800133996791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5704611483399126</v>
+        <v>0.5704611483399129</v>
       </c>
     </row>
     <row r="5">
@@ -17194,22 +17194,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2422400690429393</v>
+        <v>0.2422400690429397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6057226704147741</v>
+        <v>0.6057226704147742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6380326736147531</v>
+        <v>0.6380326736147539</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6463712877059405</v>
+        <v>0.646371287705942</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5617566082186781</v>
+        <v>0.5617566082186777</v>
       </c>
     </row>
     <row r="6">
@@ -17219,22 +17219,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2222068181053359</v>
+        <v>0.2222068181053361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4912374891922993</v>
+        <v>0.4912374891922998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5542800133996784</v>
+        <v>0.5542800133996791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6463712877059405</v>
+        <v>0.646371287705942</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6325102141192952</v>
+        <v>0.6325102141192942</v>
       </c>
     </row>
     <row r="7">
@@ -17247,16 +17247,16 @@
         <v>0.2617278105252808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4747137622778297</v>
+        <v>0.4747137622778299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5704611483399126</v>
+        <v>0.5704611483399129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5617566082186781</v>
+        <v>0.5617566082186777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6325102141192952</v>
+        <v>0.6325102141192942</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
